--- a/OneTimeProgress/UploadFiles/Test7-9.xlsx
+++ b/OneTimeProgress/UploadFiles/Test7-9.xlsx
@@ -3,18 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{42992768-2E97-45B3-8115-E065C4D6B30E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{63287E11-CA92-46A2-A112-5DB0FF40B04D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
     <sheet name="Tasks" sheetId="2" r:id="rId2"/>
     <sheet name="Employees" sheetId="3" r:id="rId3"/>
     <sheet name="Departments" sheetId="4" r:id="rId4"/>
+    <sheet name="DummyData" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="92">
   <si>
     <t>equipmentName</t>
   </si>
@@ -281,6 +283,27 @@
   </si>
   <si>
     <t>SheduledStart(d-)</t>
+  </si>
+  <si>
+    <t>Yet to Start</t>
+  </si>
+  <si>
+    <t>Catering</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Cabin</t>
+  </si>
+  <si>
+    <t>start(d-)</t>
+  </si>
+  <si>
+    <t>actualstart(d-)</t>
+  </si>
+  <si>
+    <t>actualEnd(d-)</t>
   </si>
 </sst>
 </file>
@@ -356,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -370,6 +393,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,14 +420,336 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Tasks"/>
       <sheetName val="Flights"/>
-      <sheetName val="Tasks"/>
       <sheetName val="Employees"/>
       <sheetName val="Departments"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="L2">
+            <v>2.7777777777777776E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="L3">
+            <v>2.4305555555555556E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="L4">
+            <v>1.7361111111111112E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>1.5972222222222224E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>2.9166666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="L9">
+            <v>2.6388888888888889E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="L10">
+            <v>2.1527777777777781E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="L11">
+            <v>1.9444444444444445E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="L12">
+            <v>1.5277777777777777E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="L13">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="L14">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="L15">
+            <v>3.472222222222222E-3</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="L16">
+            <v>2.9166666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="L17">
+            <v>2.6388888888888889E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="L18">
+            <v>2.1527777777777781E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="L19">
+            <v>1.9444444444444445E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="L20">
+            <v>1.5277777777777777E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="L21">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="L22">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="L23">
+            <v>3.472222222222222E-3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="L24">
+            <v>2.7777777777777776E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="L25">
+            <v>2.4305555555555556E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="L26">
+            <v>1.7361111111111112E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="L27">
+            <v>1.5972222222222224E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="L28">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="L29">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="L30">
+            <v>2.9166666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="L31">
+            <v>2.6388888888888889E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="L32">
+            <v>2.1527777777777781E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="L33">
+            <v>1.9444444444444445E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="L34">
+            <v>1.5277777777777777E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="L35">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="L36">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="L37">
+            <v>3.472222222222222E-3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="L38">
+            <v>2.7777777777777776E-2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="L39">
+            <v>2.4305555555555556E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="L40">
+            <v>1.7361111111111112E-2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="L41">
+            <v>1.5972222222222224E-2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="L42">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="L43">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="L44">
+            <v>2.9166666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="L45">
+            <v>2.6388888888888889E-2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="L46">
+            <v>2.1527777777777781E-2</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="L47">
+            <v>1.9444444444444445E-2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="L48">
+            <v>1.5277777777777777E-2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="L49">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="L50">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="L51">
+            <v>3.472222222222222E-3</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="L52">
+            <v>2.7777777777777776E-2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="L53">
+            <v>2.4305555555555556E-2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="L54">
+            <v>1.7361111111111112E-2</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="L55">
+            <v>1.5972222222222224E-2</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="L56">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="L57">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="L58">
+            <v>2.9166666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="L59">
+            <v>2.6388888888888889E-2</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="L60">
+            <v>2.1527777777777781E-2</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="L61">
+            <v>1.9444444444444445E-2</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="L62">
+            <v>1.5277777777777777E-2</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="L63">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="L64">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="L65">
+            <v>3.472222222222222E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
           <cell r="B2">
             <v>101</v>
           </cell>
@@ -439,330 +790,54 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="L2">
-            <v>2.7777777777777776E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="L3">
-            <v>2.4305555555555556E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>1.7361111111111112E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>1.5972222222222224E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>2.9166666666666664E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="L9">
-            <v>2.6388888888888889E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="L10">
-            <v>2.1527777777777781E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="L11">
-            <v>1.9444444444444445E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="L12">
-            <v>1.5277777777777777E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="L13">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="L14">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="L15">
-            <v>3.472222222222222E-3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="L16">
-            <v>2.9166666666666664E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="L17">
-            <v>2.6388888888888889E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="L18">
-            <v>2.1527777777777781E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="L19">
-            <v>1.9444444444444445E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="L20">
-            <v>1.5277777777777777E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="L21">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="L22">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="L23">
-            <v>3.472222222222222E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="L24">
-            <v>2.7777777777777776E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="L25">
-            <v>2.4305555555555556E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="L26">
-            <v>1.7361111111111112E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="L27">
-            <v>1.5972222222222224E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="L28">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="L29">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="L30">
-            <v>2.9166666666666664E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="L31">
-            <v>2.6388888888888889E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="L32">
-            <v>2.1527777777777781E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="L33">
-            <v>1.9444444444444445E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="L34">
-            <v>1.5277777777777777E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="L35">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="L36">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="L37">
-            <v>3.472222222222222E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="L38">
-            <v>2.7777777777777776E-2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="L39">
-            <v>2.4305555555555556E-2</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="L40">
-            <v>1.7361111111111112E-2</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="L41">
-            <v>1.5972222222222224E-2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="L42">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="L43">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="L44">
-            <v>2.9166666666666664E-2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="L45">
-            <v>2.6388888888888889E-2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="L46">
-            <v>2.1527777777777781E-2</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="L47">
-            <v>1.9444444444444445E-2</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="L48">
-            <v>1.5277777777777777E-2</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="L49">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="L50">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="L51">
-            <v>3.472222222222222E-3</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="L52">
-            <v>2.7777777777777776E-2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="L53">
-            <v>2.4305555555555556E-2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="L54">
-            <v>1.7361111111111112E-2</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="L55">
-            <v>1.5972222222222224E-2</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="L56">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="L57">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="L58">
-            <v>2.9166666666666664E-2</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="L59">
-            <v>2.6388888888888889E-2</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="L60">
-            <v>2.1527777777777781E-2</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="L61">
-            <v>1.9444444444444445E-2</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="L62">
-            <v>1.5277777777777777E-2</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="L63">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="L64">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="L65">
-            <v>3.472222222222222E-3</v>
-          </cell>
-        </row>
-      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tasks"/>
+      <sheetName val="Departments"/>
+      <sheetName val="Flights"/>
+      <sheetName val="Employees"/>
+      <sheetName val="xxDepartments"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D2">
+            <v>0.37847222222222221</v>
+          </cell>
+          <cell r="G2">
+            <v>0.37708333333333333</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>0.40277777777777779</v>
+          </cell>
+          <cell r="H7">
+            <v>0.40277777777777779</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>0.40625</v>
+          </cell>
+          <cell r="H15">
+            <v>0.40625</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1033,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1329,7 @@
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4590,6 +4665,8 @@
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5139,4 +5216,1026 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421BC5A9-C2A6-4037-840C-3488AF26A547}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>101</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="17">
+        <v>35</v>
+      </c>
+      <c r="E2" s="18">
+        <f>[2]Tasks!D2</f>
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="F2" s="18">
+        <f>[2]Tasks!E7</f>
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="G2" s="18">
+        <f>[2]Tasks!G2</f>
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="H2" s="18">
+        <f>[2]Tasks!H7</f>
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="7">
+        <v>40</v>
+      </c>
+      <c r="K2" s="7">
+        <v>42</v>
+      </c>
+      <c r="L2" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>101</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="17">
+        <v>47</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="F3" s="18">
+        <f>[2]Tasks!E15</f>
+        <v>0.40625</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="H3" s="18">
+        <f>[2]Tasks!H15</f>
+        <v>0.40625</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="7">
+        <v>47</v>
+      </c>
+      <c r="K3" s="7">
+        <v>46</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>101</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="16">
+        <v>20</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="16">
+        <v>42</v>
+      </c>
+      <c r="K4" s="16">
+        <v>42</v>
+      </c>
+      <c r="L4" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>101</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="16">
+        <v>20</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="16">
+        <v>42</v>
+      </c>
+      <c r="K5" s="16">
+        <v>42</v>
+      </c>
+      <c r="L5" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>101</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="16">
+        <v>8</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.38472222222222224</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.38472222222222224</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="16">
+        <v>31</v>
+      </c>
+      <c r="K6" s="16">
+        <v>31</v>
+      </c>
+      <c r="L6" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>121</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="17">
+        <v>35</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.43055555555555552</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.43055555555555552</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="16">
+        <v>40</v>
+      </c>
+      <c r="K7" s="16">
+        <v>40</v>
+      </c>
+      <c r="L7" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>121</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="17">
+        <v>47</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="16">
+        <v>47</v>
+      </c>
+      <c r="K8" s="16">
+        <v>47</v>
+      </c>
+      <c r="L8" s="16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>121</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="16">
+        <v>20</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0.42916666666666664</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0.42916666666666664</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="16">
+        <v>42</v>
+      </c>
+      <c r="K9" s="16">
+        <v>42</v>
+      </c>
+      <c r="L9" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>121</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="16">
+        <v>20</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.42916666666666664</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.42916666666666664</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="16">
+        <v>42</v>
+      </c>
+      <c r="K10" s="16">
+        <v>42</v>
+      </c>
+      <c r="L10" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>121</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="16">
+        <v>8</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.44236111111111109</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.44236111111111109</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="16">
+        <v>31</v>
+      </c>
+      <c r="K11" s="16">
+        <v>31</v>
+      </c>
+      <c r="L11" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>343</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="17">
+        <v>35</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="7">
+        <v>40</v>
+      </c>
+      <c r="K12" s="16">
+        <v>40</v>
+      </c>
+      <c r="L12" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>343</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="17">
+        <v>47</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0.46875</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="7">
+        <v>47</v>
+      </c>
+      <c r="K13" s="16">
+        <v>47</v>
+      </c>
+      <c r="L13" s="16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>343</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="16">
+        <v>20</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="16">
+        <v>42</v>
+      </c>
+      <c r="K14" s="16">
+        <v>42</v>
+      </c>
+      <c r="L14" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>343</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="16">
+        <v>20</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="16">
+        <v>42</v>
+      </c>
+      <c r="K15" s="16">
+        <v>42</v>
+      </c>
+      <c r="L15" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>343</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="16">
+        <v>8</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="16">
+        <v>31</v>
+      </c>
+      <c r="K16" s="16">
+        <v>31</v>
+      </c>
+      <c r="L16" s="16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>360</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="17">
+        <v>35</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.48958333333333337</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="16">
+        <v>40</v>
+      </c>
+      <c r="K17" s="16">
+        <v>40</v>
+      </c>
+      <c r="L17" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>360</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="17">
+        <v>47</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="16">
+        <v>47</v>
+      </c>
+      <c r="K18" s="16">
+        <v>47</v>
+      </c>
+      <c r="L18" s="16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>360</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="16">
+        <v>20</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0.46388888888888891</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="16">
+        <v>42</v>
+      </c>
+      <c r="K19" s="16">
+        <v>42</v>
+      </c>
+      <c r="L19" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>360</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="16">
+        <v>20</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0.46388888888888891</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="16">
+        <v>42</v>
+      </c>
+      <c r="K20" s="16">
+        <v>42</v>
+      </c>
+      <c r="L20" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>360</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="16">
+        <v>8</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0.47152777777777782</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0.47708333333333336</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="16">
+        <v>31</v>
+      </c>
+      <c r="K21" s="16">
+        <v>31</v>
+      </c>
+      <c r="L21" s="16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>144</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="17">
+        <v>35</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="16">
+        <v>40</v>
+      </c>
+      <c r="K22" s="16">
+        <v>40</v>
+      </c>
+      <c r="L22" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>144</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="17">
+        <v>47</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="16">
+        <v>47</v>
+      </c>
+      <c r="K23" s="16">
+        <v>47</v>
+      </c>
+      <c r="L23" s="16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>144</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="16">
+        <v>20</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0.5263888888888888</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="16">
+        <v>42</v>
+      </c>
+      <c r="K24" s="16">
+        <v>42</v>
+      </c>
+      <c r="L24" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>144</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="16">
+        <v>20</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0.5263888888888888</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="16">
+        <v>42</v>
+      </c>
+      <c r="K25" s="16">
+        <v>42</v>
+      </c>
+      <c r="L25" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>144</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="16">
+        <v>8</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0.52569444444444435</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="16">
+        <v>31</v>
+      </c>
+      <c r="K26" s="16">
+        <v>31</v>
+      </c>
+      <c r="L26" s="16">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/OneTimeProgress/UploadFiles/Test7-9.xlsx
+++ b/OneTimeProgress/UploadFiles/Test7-9.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{63287E11-CA92-46A2-A112-5DB0FF40B04D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D4E7F7BD-7112-428F-A10C-4B5FC6234576}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
@@ -379,13 +379,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1326,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54C8546-7BF0-411A-A863-3660B120A6A0}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1348,7 @@
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -1417,8 +1416,8 @@
       <c r="H2" s="4">
         <v>0.38958333333333334</v>
       </c>
-      <c r="I2" s="7">
-        <v>18</v>
+      <c r="I2" s="6">
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>43</v>
@@ -1430,14 +1429,10 @@
         <v>40</v>
       </c>
       <c r="M2">
-        <v>42</v>
-      </c>
-      <c r="N2" s="5">
-        <f>H2-G2</f>
-        <v>1.2499999999999956E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -1464,8 +1459,8 @@
       <c r="H3" s="4">
         <v>0.38263888888888892</v>
       </c>
-      <c r="I3" s="7">
-        <v>2</v>
+      <c r="I3" s="6">
+        <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>43</v>
@@ -1479,12 +1474,8 @@
       <c r="M3" s="3">
         <v>36</v>
       </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3:N65" si="0">H3-G3</f>
-        <v>1.388888888888884E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -1511,8 +1502,8 @@
       <c r="H4" s="4">
         <v>0.39374999999999999</v>
       </c>
-      <c r="I4" s="6">
-        <v>4</v>
+      <c r="I4" s="5">
+        <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>43</v>
@@ -1526,12 +1517,8 @@
       <c r="M4" s="3">
         <v>22</v>
       </c>
-      <c r="N4" s="5">
-        <f t="shared" si="0"/>
-        <v>2.7777777777777679E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -1553,13 +1540,13 @@
         <v>42</v>
       </c>
       <c r="G5" s="4">
-        <v>0.3972222222222222</v>
+        <v>0.39166666666666666</v>
       </c>
       <c r="H5" s="4">
         <v>0.40625</v>
       </c>
-      <c r="I5" s="6">
-        <v>13</v>
+      <c r="I5" s="5">
+        <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>43</v>
@@ -1571,14 +1558,10 @@
         <v>23</v>
       </c>
       <c r="M5" s="3">
-        <v>13</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="0"/>
-        <v>9.0277777777778012E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -1600,12 +1583,12 @@
         <v>42</v>
       </c>
       <c r="G6" s="4">
-        <v>0.40972222222222227</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="H6" s="4">
         <v>0.41319444444444442</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>5</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -1618,14 +1601,10 @@
         <v>10</v>
       </c>
       <c r="M6" s="3">
-        <v>-5</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4722222222221544E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -1647,13 +1626,13 @@
         <v>42</v>
       </c>
       <c r="G7" s="4">
-        <v>0.40833333333333338</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="H7" s="4">
         <v>0.4152777777777778</v>
       </c>
-      <c r="I7" s="6">
-        <v>10</v>
+      <c r="I7" s="5">
+        <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>43</v>
@@ -1665,14 +1644,10 @@
         <v>10</v>
       </c>
       <c r="M7" s="3">
-        <v>-3</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -1699,8 +1674,8 @@
       <c r="H8" s="4">
         <v>0.38958333333333334</v>
       </c>
-      <c r="I8" s="6">
-        <v>18</v>
+      <c r="I8" s="5">
+        <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>45</v>
@@ -1714,12 +1689,8 @@
       <c r="M8" s="3">
         <v>42</v>
       </c>
-      <c r="N8" s="5">
-        <f t="shared" si="0"/>
-        <v>1.2500000000000011E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -1746,8 +1717,8 @@
       <c r="H9" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="I9" s="6">
-        <v>18</v>
+      <c r="I9" s="5">
+        <v>20</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>45</v>
@@ -1761,12 +1732,8 @@
       <c r="M9" s="3">
         <v>38</v>
       </c>
-      <c r="N9" s="5">
-        <f t="shared" si="0"/>
-        <v>1.2500000000000011E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -1793,8 +1760,8 @@
       <c r="H10" s="4">
         <v>0.39097222222222222</v>
       </c>
-      <c r="I10" s="6">
-        <v>9</v>
+      <c r="I10" s="5">
+        <v>8</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>45</v>
@@ -1808,12 +1775,8 @@
       <c r="M10" s="3">
         <v>31</v>
       </c>
-      <c r="N10" s="5">
-        <f t="shared" si="0"/>
-        <v>6.2499999999999778E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -1840,7 +1803,7 @@
       <c r="H11" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>5</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -1855,12 +1818,8 @@
       <c r="M11" s="3">
         <v>20</v>
       </c>
-      <c r="N11" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -1887,8 +1846,8 @@
       <c r="H12" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I12" s="6">
-        <v>35</v>
+      <c r="I12" s="5">
+        <v>18</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>45</v>
@@ -1902,12 +1861,8 @@
       <c r="M12" s="3">
         <v>20</v>
       </c>
-      <c r="N12" s="5">
-        <f t="shared" si="0"/>
-        <v>2.430555555555558E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -1929,12 +1884,12 @@
         <v>42</v>
       </c>
       <c r="G13" s="4">
-        <v>0.4152777777777778</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="H13" s="4">
         <v>0.41875000000000001</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>5</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -1947,14 +1902,10 @@
         <v>10</v>
       </c>
       <c r="M13" s="3">
-        <v>-13</v>
-      </c>
-      <c r="N13" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -1976,12 +1927,12 @@
         <v>42</v>
       </c>
       <c r="G14" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="H14" s="4">
         <v>0.4201388888888889</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>5</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -1994,14 +1945,10 @@
         <v>10</v>
       </c>
       <c r="M14" s="3">
-        <v>-15</v>
-      </c>
-      <c r="N14" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f>[1]Flights!$B$2</f>
         <v>101</v>
@@ -2023,12 +1970,12 @@
         <v>42</v>
       </c>
       <c r="G15" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="H15" s="4">
         <v>0.4201388888888889</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>5</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -2041,14 +1988,10 @@
         <v>5</v>
       </c>
       <c r="M15" s="3">
-        <v>-15</v>
-      </c>
-      <c r="N15" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f>[1]Flights!$B$3</f>
         <v>121</v>
@@ -2075,7 +2018,7 @@
       <c r="H16" s="4">
         <v>0.44305555555555554</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -2090,12 +2033,8 @@
       <c r="M16" s="3">
         <v>42</v>
       </c>
-      <c r="N16" s="5">
-        <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f>[1]Flights!$B$3</f>
         <v>121</v>
@@ -2122,7 +2061,7 @@
       <c r="H17" s="4">
         <v>0.4458333333333333</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -2137,12 +2076,8 @@
       <c r="M17" s="3">
         <v>38</v>
       </c>
-      <c r="N17" s="5">
-        <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f>[1]Flights!$B$3</f>
         <v>121</v>
@@ -2169,7 +2104,7 @@
       <c r="H18" s="4">
         <v>0.44236111111111115</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>8</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -2184,12 +2119,8 @@
       <c r="M18" s="3">
         <v>31</v>
       </c>
-      <c r="N18" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555556468E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f>[1]Flights!$B$3</f>
         <v>121</v>
@@ -2216,7 +2147,7 @@
       <c r="H19" s="4">
         <v>0.44236111111111115</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>5</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -2231,12 +2162,8 @@
       <c r="M19" s="3">
         <v>28</v>
       </c>
-      <c r="N19" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222654E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f>[1]Flights!$B$3</f>
         <v>121</v>
@@ -2263,7 +2190,7 @@
       <c r="H20" s="4">
         <v>0.4548611111111111</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>17</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -2278,12 +2205,8 @@
       <c r="M20" s="3">
         <v>22</v>
       </c>
-      <c r="N20" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1805555555555569E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f>[1]Flights!$B$3</f>
         <v>121</v>
@@ -2310,7 +2233,7 @@
       <c r="H21" s="4">
         <v>0.4548611111111111</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>5</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -2325,12 +2248,8 @@
       <c r="M21" s="3">
         <v>10</v>
       </c>
-      <c r="N21" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f>[1]Flights!$B$3</f>
         <v>121</v>
@@ -2357,7 +2276,7 @@
       <c r="H22" s="4">
         <v>0.4548611111111111</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -2372,12 +2291,8 @@
       <c r="M22" s="3">
         <v>10</v>
       </c>
-      <c r="N22" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f>[1]Flights!$B$3</f>
         <v>121</v>
@@ -2404,7 +2319,7 @@
       <c r="H23" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>5</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -2419,12 +2334,8 @@
       <c r="M23" s="3">
         <v>5</v>
       </c>
-      <c r="N23" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -2451,7 +2362,7 @@
       <c r="H24" s="4">
         <v>0.4548611111111111</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>20</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -2466,12 +2377,8 @@
       <c r="M24" s="3">
         <v>40</v>
       </c>
-      <c r="N24" s="5">
-        <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -2498,7 +2405,7 @@
       <c r="H25" s="4">
         <v>0.44791666666666669</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>5</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -2513,12 +2420,8 @@
       <c r="M25" s="3">
         <v>35</v>
       </c>
-      <c r="N25" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222654E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -2545,7 +2448,7 @@
       <c r="H26" s="4">
         <v>0.4548611111111111</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>5</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -2560,12 +2463,8 @@
       <c r="M26" s="3">
         <v>25</v>
       </c>
-      <c r="N26" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -2592,7 +2491,7 @@
       <c r="H27" s="4">
         <v>0.4548611111111111</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -2607,12 +2506,8 @@
       <c r="M27" s="3">
         <v>23</v>
       </c>
-      <c r="N27" s="5">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333259E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -2639,7 +2534,7 @@
       <c r="H28" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>8</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -2654,12 +2549,8 @@
       <c r="M28">
         <v>31</v>
       </c>
-      <c r="N28" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -2686,7 +2577,7 @@
       <c r="H29" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
@@ -2701,12 +2592,8 @@
       <c r="M29">
         <v>31</v>
       </c>
-      <c r="N29" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -2733,7 +2620,7 @@
       <c r="H30" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>7</v>
       </c>
       <c r="J30" s="3" t="s">
@@ -2748,12 +2635,8 @@
       <c r="M30" s="3">
         <v>42</v>
       </c>
-      <c r="N30" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8611111111110383E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -2780,7 +2663,7 @@
       <c r="H31" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>3</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -2795,12 +2678,8 @@
       <c r="M31" s="3">
         <v>38</v>
       </c>
-      <c r="N31" s="5">
-        <f t="shared" si="0"/>
-        <v>2.0833333333332704E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -2827,7 +2706,7 @@
       <c r="H32" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>8</v>
       </c>
       <c r="J32" s="3" t="s">
@@ -2842,12 +2721,8 @@
       <c r="M32" s="3">
         <v>31</v>
       </c>
-      <c r="N32" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -2874,7 +2749,7 @@
       <c r="H33" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>8</v>
       </c>
       <c r="J33" s="3" t="s">
@@ -2889,12 +2764,8 @@
       <c r="M33">
         <v>28</v>
       </c>
-      <c r="N33" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -2921,7 +2792,7 @@
       <c r="H34" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <v>8</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -2936,12 +2807,8 @@
       <c r="M34">
         <v>22</v>
       </c>
-      <c r="N34" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -2968,7 +2835,7 @@
       <c r="H35" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <v>8</v>
       </c>
       <c r="J35" s="3" t="s">
@@ -2983,12 +2850,8 @@
       <c r="M35">
         <v>10</v>
       </c>
-      <c r="N35" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -3015,7 +2878,7 @@
       <c r="H36" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>8</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -3030,12 +2893,8 @@
       <c r="M36">
         <v>10</v>
       </c>
-      <c r="N36" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f>[1]Flights!$B$4</f>
         <v>343</v>
@@ -3062,7 +2921,7 @@
       <c r="H37" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <v>8</v>
       </c>
       <c r="J37" s="3" t="s">
@@ -3077,12 +2936,8 @@
       <c r="M37">
         <v>5</v>
       </c>
-      <c r="N37" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3109,7 +2964,7 @@
       <c r="H38" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <v>8</v>
       </c>
       <c r="J38" s="3" t="s">
@@ -3124,12 +2979,8 @@
       <c r="M38">
         <v>40</v>
       </c>
-      <c r="N38" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3156,7 +3007,7 @@
       <c r="H39" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <v>8</v>
       </c>
       <c r="J39" s="3" t="s">
@@ -3171,12 +3022,8 @@
       <c r="M39">
         <v>35</v>
       </c>
-      <c r="N39" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3203,7 +3050,7 @@
       <c r="H40" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <v>8</v>
       </c>
       <c r="J40" s="3" t="s">
@@ -3218,12 +3065,8 @@
       <c r="M40">
         <v>25</v>
       </c>
-      <c r="N40" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3250,7 +3093,7 @@
       <c r="H41" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <v>8</v>
       </c>
       <c r="J41" s="3" t="s">
@@ -3265,12 +3108,8 @@
       <c r="M41">
         <v>23</v>
       </c>
-      <c r="N41" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3297,7 +3136,7 @@
       <c r="H42" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="5">
         <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
@@ -3312,12 +3151,8 @@
       <c r="M42">
         <v>10</v>
       </c>
-      <c r="N42" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3344,7 +3179,7 @@
       <c r="H43" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="5">
         <v>8</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -3359,12 +3194,8 @@
       <c r="M43">
         <v>10</v>
       </c>
-      <c r="N43" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3391,7 +3222,7 @@
       <c r="H44" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="5">
         <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
@@ -3406,12 +3237,8 @@
       <c r="M44">
         <v>42</v>
       </c>
-      <c r="N44" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3438,7 +3265,7 @@
       <c r="H45" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="5">
         <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -3453,12 +3280,8 @@
       <c r="M45">
         <v>38</v>
       </c>
-      <c r="N45" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3485,7 +3308,7 @@
       <c r="H46" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="5">
         <v>8</v>
       </c>
       <c r="J46" s="3" t="s">
@@ -3500,12 +3323,8 @@
       <c r="M46">
         <v>31</v>
       </c>
-      <c r="N46" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3532,7 +3351,7 @@
       <c r="H47" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="5">
         <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
@@ -3547,12 +3366,8 @@
       <c r="M47">
         <v>28</v>
       </c>
-      <c r="N47" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3579,7 +3394,7 @@
       <c r="H48" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <v>8</v>
       </c>
       <c r="J48" s="3" t="s">
@@ -3594,12 +3409,8 @@
       <c r="M48">
         <v>22</v>
       </c>
-      <c r="N48" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3626,7 +3437,7 @@
       <c r="H49" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
@@ -3641,12 +3452,8 @@
       <c r="M49">
         <v>10</v>
       </c>
-      <c r="N49" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3673,7 +3480,7 @@
       <c r="H50" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="5">
         <v>8</v>
       </c>
       <c r="J50" s="3" t="s">
@@ -3688,12 +3495,8 @@
       <c r="M50">
         <v>10</v>
       </c>
-      <c r="N50" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <f>[1]Flights!$B$5</f>
         <v>360</v>
@@ -3720,7 +3523,7 @@
       <c r="H51" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="5">
         <v>8</v>
       </c>
       <c r="J51" s="3" t="s">
@@ -3735,12 +3538,8 @@
       <c r="M51">
         <v>5</v>
       </c>
-      <c r="N51" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -3767,7 +3566,7 @@
       <c r="H52" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="5">
         <v>8</v>
       </c>
       <c r="J52" s="3" t="s">
@@ -3782,12 +3581,8 @@
       <c r="M52">
         <v>40</v>
       </c>
-      <c r="N52" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -3814,7 +3609,7 @@
       <c r="H53" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="5">
         <v>8</v>
       </c>
       <c r="J53" s="3" t="s">
@@ -3829,12 +3624,8 @@
       <c r="M53">
         <v>35</v>
       </c>
-      <c r="N53" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -3861,7 +3652,7 @@
       <c r="H54" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="5">
         <v>8</v>
       </c>
       <c r="J54" s="3" t="s">
@@ -3876,12 +3667,8 @@
       <c r="M54">
         <v>25</v>
       </c>
-      <c r="N54" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -3908,7 +3695,7 @@
       <c r="H55" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="5">
         <v>8</v>
       </c>
       <c r="J55" s="3" t="s">
@@ -3923,12 +3710,8 @@
       <c r="M55">
         <v>23</v>
       </c>
-      <c r="N55" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -3955,7 +3738,7 @@
       <c r="H56" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="5">
         <v>8</v>
       </c>
       <c r="J56" s="3" t="s">
@@ -3970,12 +3753,8 @@
       <c r="M56">
         <v>10</v>
       </c>
-      <c r="N56" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -4002,7 +3781,7 @@
       <c r="H57" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="5">
         <v>8</v>
       </c>
       <c r="J57" s="3" t="s">
@@ -4017,12 +3796,8 @@
       <c r="M57">
         <v>10</v>
       </c>
-      <c r="N57" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -4049,7 +3824,7 @@
       <c r="H58" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="5">
         <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
@@ -4064,12 +3839,8 @@
       <c r="M58">
         <v>42</v>
       </c>
-      <c r="N58" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -4096,7 +3867,7 @@
       <c r="H59" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <v>8</v>
       </c>
       <c r="J59" s="3" t="s">
@@ -4111,12 +3882,8 @@
       <c r="M59">
         <v>38</v>
       </c>
-      <c r="N59" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -4143,7 +3910,7 @@
       <c r="H60" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="5">
         <v>8</v>
       </c>
       <c r="J60" s="3" t="s">
@@ -4158,12 +3925,8 @@
       <c r="M60">
         <v>31</v>
       </c>
-      <c r="N60" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -4190,7 +3953,7 @@
       <c r="H61" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="5">
         <v>8</v>
       </c>
       <c r="J61" s="3" t="s">
@@ -4205,12 +3968,8 @@
       <c r="M61">
         <v>28</v>
       </c>
-      <c r="N61" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -4237,7 +3996,7 @@
       <c r="H62" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="5">
         <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
@@ -4252,12 +4011,8 @@
       <c r="M62">
         <v>22</v>
       </c>
-      <c r="N62" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -4284,7 +4039,7 @@
       <c r="H63" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="5">
         <v>8</v>
       </c>
       <c r="J63" s="3" t="s">
@@ -4299,12 +4054,8 @@
       <c r="M63">
         <v>10</v>
       </c>
-      <c r="N63" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -4331,7 +4082,7 @@
       <c r="H64" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="5">
         <v>8</v>
       </c>
       <c r="J64" s="3" t="s">
@@ -4346,12 +4097,8 @@
       <c r="M64">
         <v>10</v>
       </c>
-      <c r="N64" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <f>[1]Flights!$B$6</f>
         <v>144</v>
@@ -4378,7 +4125,7 @@
       <c r="H65" s="4">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="5">
         <v>8</v>
       </c>
       <c r="J65" s="3" t="s">
@@ -4392,10 +4139,6 @@
       </c>
       <c r="M65">
         <v>5</v>
-      </c>
-      <c r="N65" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555913E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4415,238 +4158,238 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="9"/>
+      <c r="E2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="9"/>
+      <c r="E3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4708,7 +4451,7 @@
       <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="4">
@@ -4740,7 +4483,7 @@
       <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="4">
@@ -4772,7 +4515,7 @@
       <c r="B4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="4">
@@ -4804,7 +4547,7 @@
       <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="4">
@@ -4836,7 +4579,7 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="4">
@@ -4868,7 +4611,7 @@
       <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="4">
@@ -4900,7 +4643,7 @@
       <c r="B8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="4">
@@ -4932,7 +4675,7 @@
       <c r="B9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D9" s="4">
@@ -4958,13 +4701,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>343</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="4">
@@ -4990,13 +4733,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>343</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="4">
@@ -5022,13 +4765,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>343</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="4">
@@ -5054,13 +4797,13 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>343</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="4">
@@ -5086,13 +4829,13 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>343</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="4">
@@ -5118,13 +4861,13 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>343</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="4">
@@ -5150,13 +4893,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>343</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="4">
@@ -5182,13 +4925,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>343</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D17" s="4">
@@ -5222,7 +4965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421BC5A9-C2A6-4037-840C-3488AF26A547}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
@@ -5241,996 +4984,996 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>101</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>35</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <f>[2]Tasks!D2</f>
         <v>0.37847222222222221</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <f>[2]Tasks!E7</f>
         <v>0.40277777777777779</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <f>[2]Tasks!G2</f>
         <v>0.37708333333333333</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <f>[2]Tasks!H7</f>
         <v>0.40277777777777779</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="I2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="6">
         <v>40</v>
       </c>
-      <c r="K2" s="7">
-        <v>42</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="K2" s="6">
+        <v>42</v>
+      </c>
+      <c r="L2" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>101</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="B3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="16">
         <v>47</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>0.37361111111111112</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <f>[2]Tasks!E15</f>
         <v>0.40625</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <v>0.3743055555555555</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <f>[2]Tasks!H15</f>
         <v>0.40625</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="I3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="6">
         <v>47</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>46</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>101</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="C4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="15">
         <v>20</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>0.37708333333333333</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>0.39097222222222222</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <v>0.37708333333333333</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>0.39097222222222222</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="16">
-        <v>42</v>
-      </c>
-      <c r="K4" s="16">
-        <v>42</v>
-      </c>
-      <c r="L4" s="16">
+      <c r="I4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="15">
+        <v>42</v>
+      </c>
+      <c r="K4" s="15">
+        <v>42</v>
+      </c>
+      <c r="L4" s="15">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>101</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="C5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="15">
         <v>20</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>0.37708333333333333</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>0.39097222222222222</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>0.37708333333333333</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>0.39097222222222222</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="16">
-        <v>42</v>
-      </c>
-      <c r="K5" s="16">
-        <v>42</v>
-      </c>
-      <c r="L5" s="16">
+      <c r="I5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="15">
+        <v>42</v>
+      </c>
+      <c r="K5" s="15">
+        <v>42</v>
+      </c>
+      <c r="L5" s="15">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>101</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="C6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="15">
         <v>8</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>0.38472222222222224</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>0.39027777777777778</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>0.38472222222222224</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>0.39097222222222222</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="16">
+      <c r="I6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="15">
         <v>31</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>31</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>121</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>35</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>0.43055555555555552</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>0.4548611111111111</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>0.43055555555555552</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>0.4548611111111111</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="16">
+      <c r="I7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="15">
         <v>40</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>40</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>121</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="B8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="16">
         <v>47</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>0.42569444444444443</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>0.42569444444444443</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>0.4548611111111111</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>47</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>47</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>121</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="C9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="15">
         <v>20</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>0.42916666666666664</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>0.44305555555555554</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>0.42916666666666664</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>0.44305555555555554</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="16">
-        <v>42</v>
-      </c>
-      <c r="K9" s="16">
-        <v>42</v>
-      </c>
-      <c r="L9" s="16">
+      <c r="I9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="15">
+        <v>42</v>
+      </c>
+      <c r="K9" s="15">
+        <v>42</v>
+      </c>
+      <c r="L9" s="15">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>121</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="C10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="15">
         <v>20</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>0.42916666666666664</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>0.44305555555555554</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>0.42916666666666664</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>0.44305555555555554</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="16">
-        <v>42</v>
-      </c>
-      <c r="K10" s="16">
-        <v>42</v>
-      </c>
-      <c r="L10" s="16">
+      <c r="I10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="15">
+        <v>42</v>
+      </c>
+      <c r="K10" s="15">
+        <v>42</v>
+      </c>
+      <c r="L10" s="15">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>121</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="15">
         <v>8</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>0.43680555555555556</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>0.44236111111111109</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>0.43680555555555556</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>0.44236111111111109</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="16">
+      <c r="I11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="15">
         <v>31</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>31</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>343</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>35</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>0.44097222222222221</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>0.46527777777777779</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>0.44097222222222221</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>0.4548611111111111</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>40</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>40</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>343</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="B13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="16">
         <v>47</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>0.43611111111111112</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>0.46875</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>0.43611111111111112</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <v>0.4548611111111111</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>47</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <v>47</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>343</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="C14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="15">
         <v>20</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>0.43958333333333333</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>0.45347222222222222</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
         <v>0.43958333333333333</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <v>0.45347222222222222</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="16">
-        <v>42</v>
-      </c>
-      <c r="K14" s="16">
-        <v>42</v>
-      </c>
-      <c r="L14" s="16">
+      <c r="I14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="15">
+        <v>42</v>
+      </c>
+      <c r="K14" s="15">
+        <v>42</v>
+      </c>
+      <c r="L14" s="15">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>343</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="C15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="15">
         <v>20</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>0.43958333333333333</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>0.45347222222222222</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>0.43958333333333333</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <v>0.45347222222222222</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="16">
-        <v>42</v>
-      </c>
-      <c r="K15" s="16">
-        <v>42</v>
-      </c>
-      <c r="L15" s="16">
+      <c r="I15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="15">
+        <v>42</v>
+      </c>
+      <c r="K15" s="15">
+        <v>42</v>
+      </c>
+      <c r="L15" s="15">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>343</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="C16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="15">
         <v>8</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>0.44722222222222224</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <v>0.45277777777777778</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>0.44722222222222224</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="16">
+      <c r="I16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="15">
         <v>31</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>31</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>360</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>35</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>0.46527777777777779</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>0.48958333333333337</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <v>0.44722222222222224</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <v>40</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <v>40</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="15">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>360</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="B18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="16">
         <v>47</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>0.4604166666666667</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <v>0.49305555555555558</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <v>0.44722222222222224</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="15">
         <v>47</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <v>47</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>360</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="C19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="15">
         <v>20</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>0.46388888888888891</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="17">
         <v>0.4777777777777778</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <v>0.44722222222222224</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="16">
-        <v>42</v>
-      </c>
-      <c r="K19" s="16">
-        <v>42</v>
-      </c>
-      <c r="L19" s="16">
+      <c r="J19" s="15">
+        <v>42</v>
+      </c>
+      <c r="K19" s="15">
+        <v>42</v>
+      </c>
+      <c r="L19" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>360</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="C20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="15">
         <v>20</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>0.46388888888888891</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <v>0.4777777777777778</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <v>0.44722222222222224</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="16">
-        <v>42</v>
-      </c>
-      <c r="K20" s="16">
-        <v>42</v>
-      </c>
-      <c r="L20" s="16">
+      <c r="J20" s="15">
+        <v>42</v>
+      </c>
+      <c r="K20" s="15">
+        <v>42</v>
+      </c>
+      <c r="L20" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>360</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="C21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="15">
         <v>8</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>0.47152777777777782</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <v>0.47708333333333336</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <v>0.44722222222222224</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <v>31</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="15">
         <v>31</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="15">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>144</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>35</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>0.51388888888888884</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <v>0.53819444444444442</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <v>0.44722222222222224</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="15">
         <v>40</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="15">
         <v>40</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="15">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>144</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="B23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="16">
         <v>47</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <v>0.50902777777777775</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="17">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="17">
         <v>0.44722222222222224</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <v>47</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="15">
         <v>47</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="15">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>144</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="C24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="15">
         <v>20</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <v>0.51249999999999996</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="17">
         <v>0.5263888888888888</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="17">
         <v>0.44722222222222224</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="17">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J24" s="16">
-        <v>42</v>
-      </c>
-      <c r="K24" s="16">
-        <v>42</v>
-      </c>
-      <c r="L24" s="16">
+      <c r="J24" s="15">
+        <v>42</v>
+      </c>
+      <c r="K24" s="15">
+        <v>42</v>
+      </c>
+      <c r="L24" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>144</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="C25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="15">
         <v>20</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <v>0.51249999999999996</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="17">
         <v>0.5263888888888888</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="17">
         <v>0.44722222222222224</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="17">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J25" s="16">
-        <v>42</v>
-      </c>
-      <c r="K25" s="16">
-        <v>42</v>
-      </c>
-      <c r="L25" s="16">
+      <c r="J25" s="15">
+        <v>42</v>
+      </c>
+      <c r="K25" s="15">
+        <v>42</v>
+      </c>
+      <c r="L25" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>144</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="C26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="15">
         <v>8</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <v>0.52013888888888882</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="17">
         <v>0.52569444444444435</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="17">
         <v>0.44722222222222224</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="17">
         <v>0.45277777777777778</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <v>31</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <v>31</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="15">
         <v>31</v>
       </c>
     </row>

--- a/OneTimeProgress/UploadFiles/Test7-9.xlsx
+++ b/OneTimeProgress/UploadFiles/Test7-9.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D4E7F7BD-7112-428F-A10C-4B5FC6234576}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E34D5057-71E3-4664-AC33-5024CB868AA5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
@@ -1105,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1121,7 @@
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1166,14 +1166,20 @@
       <c r="G2" s="4">
         <v>0.40625</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="12">
+        <v>-120</v>
+      </c>
+      <c r="I2" s="16">
+        <v>-75</v>
+      </c>
+      <c r="J2" s="12">
         <v>0</v>
       </c>
-      <c r="I2" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1195,14 +1201,20 @@
       <c r="G3" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="12">
+        <v>-42</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
         <v>78</v>
       </c>
-      <c r="I3" s="3">
+      <c r="K3" s="12">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1224,14 +1236,20 @@
       <c r="G4" s="4">
         <v>0.46875</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="12">
+        <v>-27</v>
+      </c>
+      <c r="I4" s="12">
+        <v>15</v>
+      </c>
+      <c r="J4" s="12">
         <v>93</v>
       </c>
-      <c r="I4" s="3">
+      <c r="K4" s="12">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1253,14 +1271,20 @@
       <c r="G5" s="4">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="12">
+        <v>30</v>
+      </c>
+      <c r="I5" s="12">
+        <v>50</v>
+      </c>
+      <c r="J5" s="12">
         <v>150</v>
       </c>
-      <c r="I5" s="3">
+      <c r="K5" s="12">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1282,14 +1306,20 @@
       <c r="G6" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="12">
+        <v>60</v>
+      </c>
+      <c r="I6" s="12">
+        <v>120</v>
+      </c>
+      <c r="J6" s="12">
         <v>180</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="12">
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1311,10 +1341,16 @@
       <c r="G7" s="4">
         <v>0.63541666666666663</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="12">
+        <v>225</v>
+      </c>
+      <c r="I7" s="12">
+        <v>255</v>
+      </c>
+      <c r="J7" s="12">
         <v>345</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="12">
         <v>375</v>
       </c>
     </row>
@@ -1327,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54C8546-7BF0-411A-A863-3660B120A6A0}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
